--- a/주소록/주소록 샘플 데이터(2023-06-30).xlsx
+++ b/주소록/주소록 샘플 데이터(2023-06-30).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050002\Documents\workspace\dbms\주소록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9875A781-F240-45F7-8343-B264924DD084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0B1C2A-AE0E-4E58-A129-E3E9E1CEBC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="13560" yWindow="2550" windowWidth="14370" windowHeight="11295" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="주소정보" sheetId="1" r:id="rId1"/>
@@ -13335,8 +13335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6A332C-DDE6-40B6-8614-FC82C33C8830}">
   <dimension ref="A1:D212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13349,7 +13349,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="10" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>781</v>
+        <v>983</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>288</v>
@@ -28608,7 +28608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B49051-8859-473E-8CA5-E07FA620A0C3}">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
